--- a/arquivos de bases/base_ice.xlsx
+++ b/arquivos de bases/base_ice.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39ffc30baf637d13/Documents/GitHub/R_empreendedorismo1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thalles Maia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07379DF7-CB9B-4CAA-AA6F-83799E631B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B0DED2-163B-4A40-99AD-345576679054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3E64EE80-DD14-4A75-8B7E-3847E3599FA5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="470">
   <si>
     <t> 9.51</t>
   </si>
@@ -1435,16 +1435,31 @@
   </si>
   <si>
     <t>cod_ibge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	3547809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	3516200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	4305108</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1470,8 +1485,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1789,14 +1805,14 @@
   <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
@@ -1814,7 +1830,7 @@
       <c r="B1" t="s">
         <v>319</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>466</v>
       </c>
       <c r="D1" t="s">
@@ -1849,7 +1865,7 @@
       <c r="B2" t="s">
         <v>193</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>3550308</v>
       </c>
       <c r="D2" t="s">
@@ -1884,7 +1900,7 @@
       <c r="B3" t="s">
         <v>195</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>4205407</v>
       </c>
       <c r="D3" t="s">
@@ -1919,6 +1935,9 @@
       <c r="B4" t="s">
         <v>193</v>
       </c>
+      <c r="C4" s="1">
+        <v>3534401</v>
+      </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
@@ -1951,6 +1970,9 @@
       <c r="B5" t="s">
         <v>198</v>
       </c>
+      <c r="C5" s="1">
+        <v>3205309</v>
+      </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
@@ -1983,6 +2005,9 @@
       <c r="B6" t="s">
         <v>200</v>
       </c>
+      <c r="C6" s="1">
+        <v>5300108</v>
+      </c>
       <c r="D6" t="s">
         <v>29</v>
       </c>
@@ -2015,6 +2040,9 @@
       <c r="B7" t="s">
         <v>193</v>
       </c>
+      <c r="C7" s="1">
+        <v>3549904</v>
+      </c>
       <c r="D7" t="s">
         <v>37</v>
       </c>
@@ -2047,6 +2075,9 @@
       <c r="B8" t="s">
         <v>193</v>
       </c>
+      <c r="C8" s="1">
+        <v>3548708</v>
+      </c>
       <c r="D8" t="s">
         <v>53</v>
       </c>
@@ -2079,6 +2110,9 @@
       <c r="B9" t="s">
         <v>193</v>
       </c>
+      <c r="C9" s="1">
+        <v>3525904</v>
+      </c>
       <c r="D9" t="s">
         <v>54</v>
       </c>
@@ -2111,6 +2145,9 @@
       <c r="B10" t="s">
         <v>205</v>
       </c>
+      <c r="C10" s="1">
+        <v>4314902</v>
+      </c>
       <c r="D10" t="s">
         <v>55</v>
       </c>
@@ -2143,6 +2180,9 @@
       <c r="B11" t="s">
         <v>207</v>
       </c>
+      <c r="C11" s="1">
+        <v>3304557</v>
+      </c>
       <c r="D11" t="s">
         <v>56</v>
       </c>
@@ -2175,6 +2215,9 @@
       <c r="B12" t="s">
         <v>209</v>
       </c>
+      <c r="C12" s="1">
+        <v>4106902</v>
+      </c>
       <c r="D12" t="s">
         <v>56</v>
       </c>
@@ -2207,6 +2250,9 @@
       <c r="B13" t="s">
         <v>193</v>
       </c>
+      <c r="C13" s="1">
+        <v>3509502</v>
+      </c>
       <c r="D13" t="s">
         <v>57</v>
       </c>
@@ -2239,6 +2285,9 @@
       <c r="B14" t="s">
         <v>193</v>
       </c>
+      <c r="C14" s="1">
+        <v>3526902</v>
+      </c>
       <c r="D14" t="s">
         <v>58</v>
       </c>
@@ -2271,6 +2320,9 @@
       <c r="B15" t="s">
         <v>213</v>
       </c>
+      <c r="C15" s="1">
+        <v>3106200</v>
+      </c>
       <c r="D15" t="s">
         <v>59</v>
       </c>
@@ -2303,6 +2355,9 @@
       <c r="B16" t="s">
         <v>207</v>
       </c>
+      <c r="C16" s="1">
+        <v>3303302</v>
+      </c>
       <c r="D16" t="s">
         <v>60</v>
       </c>
@@ -2335,6 +2390,9 @@
       <c r="B17" t="s">
         <v>195</v>
       </c>
+      <c r="C17" s="1">
+        <v>4209102</v>
+      </c>
       <c r="D17" t="s">
         <v>61</v>
       </c>
@@ -2367,6 +2425,9 @@
       <c r="B18" t="s">
         <v>195</v>
       </c>
+      <c r="C18" s="1">
+        <v>4202404</v>
+      </c>
       <c r="D18" t="s">
         <v>62</v>
       </c>
@@ -2399,6 +2460,9 @@
       <c r="B19" t="s">
         <v>193</v>
       </c>
+      <c r="C19" s="1">
+        <v>3529401</v>
+      </c>
       <c r="D19" t="s">
         <v>63</v>
       </c>
@@ -2431,6 +2495,9 @@
       <c r="B20" t="s">
         <v>219</v>
       </c>
+      <c r="C20" s="1">
+        <v>1400100</v>
+      </c>
       <c r="D20" t="s">
         <v>64</v>
       </c>
@@ -2463,6 +2530,9 @@
       <c r="B21" t="s">
         <v>205</v>
       </c>
+      <c r="C21" s="1">
+        <v>4304606</v>
+      </c>
       <c r="D21" t="s">
         <v>65</v>
       </c>
@@ -2495,6 +2565,9 @@
       <c r="B22" t="s">
         <v>193</v>
       </c>
+      <c r="C22" s="1">
+        <v>3543402</v>
+      </c>
       <c r="D22" t="s">
         <v>66</v>
       </c>
@@ -2527,6 +2600,9 @@
       <c r="B23" t="s">
         <v>193</v>
       </c>
+      <c r="C23" s="1">
+        <v>3552205</v>
+      </c>
       <c r="D23" t="s">
         <v>66</v>
       </c>
@@ -2559,6 +2635,9 @@
       <c r="B24" t="s">
         <v>193</v>
       </c>
+      <c r="C24" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="D24" t="s">
         <v>67</v>
       </c>
@@ -2591,6 +2670,9 @@
       <c r="B25" t="s">
         <v>193</v>
       </c>
+      <c r="C25" s="1">
+        <v>3548500</v>
+      </c>
       <c r="D25" t="s">
         <v>68</v>
       </c>
@@ -2623,6 +2705,9 @@
       <c r="B26" t="s">
         <v>193</v>
       </c>
+      <c r="C26" s="1">
+        <v>3513801</v>
+      </c>
       <c r="D26" t="s">
         <v>69</v>
       </c>
@@ -2655,6 +2740,9 @@
       <c r="B27" t="s">
         <v>193</v>
       </c>
+      <c r="C27" s="1">
+        <v>3530607</v>
+      </c>
       <c r="D27" t="s">
         <v>70</v>
       </c>
@@ -2687,6 +2775,9 @@
       <c r="B28" t="s">
         <v>193</v>
       </c>
+      <c r="C28" s="1" t="s">
+        <v>468</v>
+      </c>
       <c r="D28" t="s">
         <v>71</v>
       </c>
@@ -2719,6 +2810,9 @@
       <c r="B29" t="s">
         <v>193</v>
       </c>
+      <c r="C29" s="1">
+        <v>3538709</v>
+      </c>
       <c r="D29" t="s">
         <v>72</v>
       </c>
@@ -2751,6 +2845,9 @@
       <c r="B30" t="s">
         <v>205</v>
       </c>
+      <c r="C30" s="1" t="s">
+        <v>469</v>
+      </c>
       <c r="D30" t="s">
         <v>73</v>
       </c>
@@ -2783,6 +2880,9 @@
       <c r="B31" t="s">
         <v>213</v>
       </c>
+      <c r="C31" s="1">
+        <v>3170206</v>
+      </c>
       <c r="D31" t="s">
         <v>74</v>
       </c>
@@ -2815,6 +2915,9 @@
       <c r="B32" t="s">
         <v>193</v>
       </c>
+      <c r="C32" s="1">
+        <v>3518800</v>
+      </c>
       <c r="D32" t="s">
         <v>75</v>
       </c>
@@ -2847,6 +2950,9 @@
       <c r="B33" t="s">
         <v>193</v>
       </c>
+      <c r="C33" s="1">
+        <v>3552502</v>
+      </c>
       <c r="D33" t="s">
         <v>76</v>
       </c>
@@ -2879,6 +2985,9 @@
       <c r="B34" t="s">
         <v>209</v>
       </c>
+      <c r="C34" s="1">
+        <v>4115200</v>
+      </c>
       <c r="D34" t="s">
         <v>77</v>
       </c>
@@ -2911,6 +3020,9 @@
       <c r="B35" t="s">
         <v>198</v>
       </c>
+      <c r="C35" s="1">
+        <v>3205200</v>
+      </c>
       <c r="D35" t="s">
         <v>78</v>
       </c>
@@ -2943,6 +3055,9 @@
       <c r="B36" t="s">
         <v>193</v>
       </c>
+      <c r="C36" s="1">
+        <v>3506003</v>
+      </c>
       <c r="D36" t="s">
         <v>79</v>
       </c>
@@ -2975,6 +3090,9 @@
       <c r="B37" t="s">
         <v>205</v>
       </c>
+      <c r="C37" s="1">
+        <v>2409332</v>
+      </c>
       <c r="D37" t="s">
         <v>79</v>
       </c>
@@ -3007,6 +3125,9 @@
       <c r="B38" t="s">
         <v>238</v>
       </c>
+      <c r="C38" s="1">
+        <v>2611606</v>
+      </c>
       <c r="D38" t="s">
         <v>79</v>
       </c>
@@ -3039,6 +3160,9 @@
       <c r="B39" t="s">
         <v>207</v>
       </c>
+      <c r="C39" s="1">
+        <v>3301702</v>
+      </c>
       <c r="D39" t="s">
         <v>80</v>
       </c>
@@ -3071,6 +3195,9 @@
       <c r="B40" t="s">
         <v>193</v>
       </c>
+      <c r="C40" s="1">
+        <v>3552809</v>
+      </c>
       <c r="D40" t="s">
         <v>81</v>
       </c>
@@ -3103,6 +3230,9 @@
       <c r="B41" t="s">
         <v>209</v>
       </c>
+      <c r="C41" s="1">
+        <v>4104808</v>
+      </c>
       <c r="D41" t="s">
         <v>81</v>
       </c>
@@ -3135,6 +3265,9 @@
       <c r="B42" t="s">
         <v>209</v>
       </c>
+      <c r="C42" s="1">
+        <v>4125506</v>
+      </c>
       <c r="D42" t="s">
         <v>82</v>
       </c>
@@ -3167,6 +3300,9 @@
       <c r="B43" t="s">
         <v>193</v>
       </c>
+      <c r="C43" s="1">
+        <v>3554102</v>
+      </c>
       <c r="D43" t="s">
         <v>83</v>
       </c>
@@ -3199,6 +3335,9 @@
       <c r="B44" t="s">
         <v>198</v>
       </c>
+      <c r="C44" s="1">
+        <v>3205002</v>
+      </c>
       <c r="D44" t="s">
         <v>84</v>
       </c>
@@ -3231,6 +3370,9 @@
       <c r="B45" t="s">
         <v>193</v>
       </c>
+      <c r="C45" s="1">
+        <v>3549805</v>
+      </c>
       <c r="D45" t="s">
         <v>85</v>
       </c>
@@ -3263,6 +3405,9 @@
       <c r="B46" t="s">
         <v>209</v>
       </c>
+      <c r="C46" s="1">
+        <v>4113700</v>
+      </c>
       <c r="D46" t="s">
         <v>86</v>
       </c>
@@ -3295,6 +3440,9 @@
       <c r="B47" t="s">
         <v>193</v>
       </c>
+      <c r="C47" s="1">
+        <v>3552403</v>
+      </c>
       <c r="D47" t="s">
         <v>86</v>
       </c>
@@ -3327,6 +3475,9 @@
       <c r="B48" t="s">
         <v>193</v>
       </c>
+      <c r="C48" s="1">
+        <v>4213807</v>
+      </c>
       <c r="D48" t="s">
         <v>87</v>
       </c>
@@ -3359,6 +3510,9 @@
       <c r="B49" t="s">
         <v>213</v>
       </c>
+      <c r="C49" s="1">
+        <v>3106705</v>
+      </c>
       <c r="D49" t="s">
         <v>88</v>
       </c>
@@ -3391,6 +3545,9 @@
       <c r="B50" t="s">
         <v>213</v>
       </c>
+      <c r="C50" s="1">
+        <v>3170107</v>
+      </c>
       <c r="D50" t="s">
         <v>89</v>
       </c>
@@ -3423,6 +3580,9 @@
       <c r="B51" t="s">
         <v>213</v>
       </c>
+      <c r="C51" s="1">
+        <v>3118601</v>
+      </c>
       <c r="D51" t="s">
         <v>90</v>
       </c>
@@ -3455,6 +3615,9 @@
       <c r="B52" t="s">
         <v>205</v>
       </c>
+      <c r="C52" s="1">
+        <v>4309209</v>
+      </c>
       <c r="D52" t="s">
         <v>91</v>
       </c>
@@ -3487,6 +3650,9 @@
       <c r="B53" t="s">
         <v>254</v>
       </c>
+      <c r="C53" s="1">
+        <v>5208707</v>
+      </c>
       <c r="D53" t="s">
         <v>92</v>
       </c>
@@ -3519,6 +3685,9 @@
       <c r="B54" t="s">
         <v>256</v>
       </c>
+      <c r="C54" s="1">
+        <v>4117602</v>
+      </c>
       <c r="D54" t="s">
         <v>93</v>
       </c>
@@ -3551,6 +3720,9 @@
       <c r="B55" t="s">
         <v>207</v>
       </c>
+      <c r="C55" s="1">
+        <v>3303500</v>
+      </c>
       <c r="D55" t="s">
         <v>94</v>
       </c>
@@ -3583,6 +3755,9 @@
       <c r="B56" t="s">
         <v>259</v>
       </c>
+      <c r="C56" s="1">
+        <v>5002704</v>
+      </c>
       <c r="D56" t="s">
         <v>95</v>
       </c>
@@ -3615,6 +3790,9 @@
       <c r="B57" t="s">
         <v>193</v>
       </c>
+      <c r="C57" s="1">
+        <v>3523107</v>
+      </c>
       <c r="D57" t="s">
         <v>95</v>
       </c>
@@ -3647,6 +3825,9 @@
       <c r="B58" t="s">
         <v>198</v>
       </c>
+      <c r="C58" s="1">
+        <v>3201308</v>
+      </c>
       <c r="D58" t="s">
         <v>96</v>
       </c>
@@ -3679,6 +3860,9 @@
       <c r="B59" t="s">
         <v>207</v>
       </c>
+      <c r="C59" s="1">
+        <v>3304904</v>
+      </c>
       <c r="D59" t="s">
         <v>97</v>
       </c>
@@ -3711,6 +3895,9 @@
       <c r="B60" t="s">
         <v>207</v>
       </c>
+      <c r="C60" s="1">
+        <v>3303906</v>
+      </c>
       <c r="D60" t="s">
         <v>98</v>
       </c>
@@ -3743,6 +3930,9 @@
       <c r="B61" t="s">
         <v>193</v>
       </c>
+      <c r="C61" s="1">
+        <v>3551009</v>
+      </c>
       <c r="D61" t="s">
         <v>99</v>
       </c>
@@ -3775,6 +3965,9 @@
       <c r="B62" t="s">
         <v>266</v>
       </c>
+      <c r="C62" s="1">
+        <v>5103403</v>
+      </c>
       <c r="D62" t="s">
         <v>100</v>
       </c>
@@ -3807,6 +4000,9 @@
       <c r="B63" t="s">
         <v>209</v>
       </c>
+      <c r="C63" s="1">
+        <v>4119905</v>
+      </c>
       <c r="D63" t="s">
         <v>101</v>
       </c>
@@ -3839,6 +4035,9 @@
       <c r="B64" t="s">
         <v>269</v>
       </c>
+      <c r="C64" s="1">
+        <v>2304400</v>
+      </c>
       <c r="D64" t="s">
         <v>101</v>
       </c>
@@ -3871,6 +4070,9 @@
       <c r="B65" t="s">
         <v>193</v>
       </c>
+      <c r="C65" s="1">
+        <v>3510609</v>
+      </c>
       <c r="D65" t="s">
         <v>102</v>
       </c>
@@ -3903,6 +4105,9 @@
       <c r="B66" t="s">
         <v>207</v>
       </c>
+      <c r="C66" s="1">
+        <v>3301009</v>
+      </c>
       <c r="D66" t="s">
         <v>103</v>
       </c>
@@ -3935,6 +4140,9 @@
       <c r="B67" t="s">
         <v>273</v>
       </c>
+      <c r="C67" s="1">
+        <v>2800308</v>
+      </c>
       <c r="D67" t="s">
         <v>104</v>
       </c>
@@ -3967,6 +4175,9 @@
       <c r="B68" t="s">
         <v>213</v>
       </c>
+      <c r="C68" s="1">
+        <v>3143302</v>
+      </c>
       <c r="D68" t="s">
         <v>105</v>
       </c>
@@ -3999,6 +4210,9 @@
       <c r="B69" t="s">
         <v>207</v>
       </c>
+      <c r="C69" s="1">
+        <v>3300456</v>
+      </c>
       <c r="D69" t="s">
         <v>106</v>
       </c>
@@ -4031,6 +4245,9 @@
       <c r="B70" t="s">
         <v>277</v>
       </c>
+      <c r="C70" s="1">
+        <v>1600303</v>
+      </c>
       <c r="D70" t="s">
         <v>107</v>
       </c>
@@ -4063,6 +4280,9 @@
       <c r="B71" t="s">
         <v>279</v>
       </c>
+      <c r="C71" s="1">
+        <v>2905701</v>
+      </c>
       <c r="D71" t="s">
         <v>108</v>
       </c>
@@ -4095,6 +4315,9 @@
       <c r="B72" t="s">
         <v>281</v>
       </c>
+      <c r="C72" s="1">
+        <v>2111300</v>
+      </c>
       <c r="D72" t="s">
         <v>109</v>
       </c>
@@ -4127,6 +4350,9 @@
       <c r="B73" t="s">
         <v>283</v>
       </c>
+      <c r="C73" s="1">
+        <v>2504009</v>
+      </c>
       <c r="D73" t="s">
         <v>110</v>
       </c>
@@ -4159,6 +4385,9 @@
       <c r="B74" t="s">
         <v>205</v>
       </c>
+      <c r="C74" s="1">
+        <v>4314407</v>
+      </c>
       <c r="D74" t="s">
         <v>111</v>
       </c>
@@ -4191,6 +4420,9 @@
       <c r="B75" t="s">
         <v>286</v>
       </c>
+      <c r="C75" s="1">
+        <v>2408102</v>
+      </c>
       <c r="D75" t="s">
         <v>112</v>
       </c>
@@ -4223,6 +4455,9 @@
       <c r="B76" t="s">
         <v>254</v>
       </c>
+      <c r="C76" s="1">
+        <v>5201108</v>
+      </c>
       <c r="D76" t="s">
         <v>113</v>
       </c>
@@ -4255,6 +4490,9 @@
       <c r="B77" t="s">
         <v>266</v>
       </c>
+      <c r="C77" s="1">
+        <v>5108402</v>
+      </c>
       <c r="D77" t="s">
         <v>114</v>
       </c>
@@ -4287,6 +4525,9 @@
       <c r="B78" t="s">
         <v>290</v>
       </c>
+      <c r="C78" s="1">
+        <v>2211001</v>
+      </c>
       <c r="D78" t="s">
         <v>115</v>
       </c>
@@ -4319,6 +4560,9 @@
       <c r="B79" t="s">
         <v>213</v>
       </c>
+      <c r="C79" s="1">
+        <v>3136702</v>
+      </c>
       <c r="D79" t="s">
         <v>115</v>
       </c>
@@ -4351,6 +4595,9 @@
       <c r="B80" t="s">
         <v>193</v>
       </c>
+      <c r="C80" s="1">
+        <v>3518701</v>
+      </c>
       <c r="D80" t="s">
         <v>116</v>
       </c>
@@ -4383,6 +4630,9 @@
       <c r="B81" t="s">
         <v>294</v>
       </c>
+      <c r="C81" s="1">
+        <v>1302603</v>
+      </c>
       <c r="D81" t="s">
         <v>117</v>
       </c>
@@ -4415,6 +4665,9 @@
       <c r="B82" t="s">
         <v>279</v>
       </c>
+      <c r="C82" s="1">
+        <v>2927408</v>
+      </c>
       <c r="D82" t="s">
         <v>118</v>
       </c>
@@ -4447,6 +4700,9 @@
       <c r="B83" t="s">
         <v>297</v>
       </c>
+      <c r="C83" s="1">
+        <v>1501402</v>
+      </c>
       <c r="D83" t="s">
         <v>119</v>
       </c>
@@ -4479,6 +4735,9 @@
       <c r="B84" t="s">
         <v>283</v>
       </c>
+      <c r="C84" s="1">
+        <v>2507507</v>
+      </c>
       <c r="D84" t="s">
         <v>120</v>
       </c>
@@ -4511,6 +4770,9 @@
       <c r="B85" t="s">
         <v>207</v>
       </c>
+      <c r="C85" s="1">
+        <v>3305109</v>
+      </c>
       <c r="D85" t="s">
         <v>121</v>
       </c>
@@ -4543,6 +4805,9 @@
       <c r="B86" t="s">
         <v>301</v>
       </c>
+      <c r="C86" s="1">
+        <v>1100205</v>
+      </c>
       <c r="D86" t="s">
         <v>122</v>
       </c>
@@ -4575,6 +4840,9 @@
       <c r="B87" t="s">
         <v>254</v>
       </c>
+      <c r="C87" s="1">
+        <v>5201405</v>
+      </c>
       <c r="D87" t="s">
         <v>122</v>
       </c>
@@ -4607,6 +4875,9 @@
       <c r="B88" t="s">
         <v>286</v>
       </c>
+      <c r="C88" s="1">
+        <v>2408003</v>
+      </c>
       <c r="D88" t="s">
         <v>123</v>
       </c>
@@ -4639,6 +4910,9 @@
       <c r="B89" t="s">
         <v>297</v>
       </c>
+      <c r="C89" s="1">
+        <v>1500800</v>
+      </c>
       <c r="D89" t="s">
         <v>124</v>
       </c>
@@ -4671,6 +4945,9 @@
       <c r="B90" t="s">
         <v>306</v>
       </c>
+      <c r="C90" s="1">
+        <v>2704302</v>
+      </c>
       <c r="D90" t="s">
         <v>125</v>
       </c>
@@ -4703,6 +4980,9 @@
       <c r="B91" t="s">
         <v>297</v>
       </c>
+      <c r="C91" s="1">
+        <v>1506807</v>
+      </c>
       <c r="D91" t="s">
         <v>125</v>
       </c>
@@ -4735,6 +5015,9 @@
       <c r="B92" t="s">
         <v>213</v>
       </c>
+      <c r="C92" s="1">
+        <v>3154606</v>
+      </c>
       <c r="D92" t="s">
         <v>125</v>
       </c>
@@ -4767,6 +5050,9 @@
       <c r="B93" t="s">
         <v>279</v>
       </c>
+      <c r="C93" s="1">
+        <v>2910800</v>
+      </c>
       <c r="D93" t="s">
         <v>126</v>
       </c>
@@ -4799,6 +5085,9 @@
       <c r="B94" t="s">
         <v>311</v>
       </c>
+      <c r="C94" s="1">
+        <v>1200401</v>
+      </c>
       <c r="D94" t="s">
         <v>127</v>
       </c>
@@ -4831,6 +5120,9 @@
       <c r="B95" t="s">
         <v>269</v>
       </c>
+      <c r="C95" s="1">
+        <v>2303709</v>
+      </c>
       <c r="D95" t="s">
         <v>128</v>
       </c>
@@ -4863,6 +5155,9 @@
       <c r="B96" t="s">
         <v>238</v>
       </c>
+      <c r="C96" s="1">
+        <v>2611101</v>
+      </c>
       <c r="D96" t="s">
         <v>129</v>
       </c>
@@ -4895,6 +5190,9 @@
       <c r="B97" t="s">
         <v>238</v>
       </c>
+      <c r="C97" s="1">
+        <v>2609600</v>
+      </c>
       <c r="D97" t="s">
         <v>130</v>
       </c>
@@ -4927,6 +5225,9 @@
       <c r="B98" t="s">
         <v>279</v>
       </c>
+      <c r="C98" s="1">
+        <v>2933307</v>
+      </c>
       <c r="D98" t="s">
         <v>131</v>
       </c>
@@ -4959,6 +5260,9 @@
       <c r="B99" t="s">
         <v>238</v>
       </c>
+      <c r="C99" s="1">
+        <v>2610707</v>
+      </c>
       <c r="D99" t="s">
         <v>132</v>
       </c>
@@ -4991,6 +5295,9 @@
       <c r="B100" t="s">
         <v>238</v>
       </c>
+      <c r="C100" s="1">
+        <v>2607901</v>
+      </c>
       <c r="D100" t="s">
         <v>133</v>
       </c>
@@ -5022,6 +5329,9 @@
       </c>
       <c r="B101" t="s">
         <v>238</v>
+      </c>
+      <c r="C101" s="1">
+        <v>2604106</v>
       </c>
       <c r="D101" t="s">
         <v>134</v>

--- a/arquivos de bases/base_ice.xlsx
+++ b/arquivos de bases/base_ice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39ffc30baf637d13/Documents/GitHub/R_empreendedorismo1/arquivos de bases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{88B0DED2-163B-4A40-99AD-345576679054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D1F4CF8-CFD7-4426-AD9E-7246484A0117}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{88B0DED2-163B-4A40-99AD-345576679054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF2B9342-741E-49F7-9DE0-D62643E92DAC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3E64EE80-DD14-4A75-8B7E-3847E3599FA5}"/>
   </bookViews>
@@ -37,9 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="467">
   <si>
-    <t>Cidade</t>
-  </si>
-  <si>
     <t>ICE</t>
   </si>
   <si>
@@ -1436,6 +1433,9 @@
   </si>
   <si>
     <t>4.90</t>
+  </si>
+  <si>
+    <t>cidade</t>
   </si>
 </sst>
 </file>
@@ -1805,7 +1805,7 @@
   <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1825,3537 +1825,3537 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
       </c>
       <c r="C2" s="1">
         <v>3550308</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
       </c>
       <c r="C3" s="1">
         <v>4205407</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1">
         <v>3534401</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
         <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
       </c>
       <c r="C5" s="1">
         <v>3205309</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
         <v>50</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
       </c>
       <c r="C6" s="1">
         <v>5300108</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
         <v>3549904</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
         <v>3548708</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
         <v>3525904</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
         <v>85</v>
-      </c>
-      <c r="B10" t="s">
-        <v>86</v>
       </c>
       <c r="C10" s="1">
         <v>4314902</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
         <v>95</v>
-      </c>
-      <c r="B11" t="s">
-        <v>96</v>
       </c>
       <c r="C11" s="1">
         <v>3304557</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
         <v>104</v>
-      </c>
-      <c r="B12" t="s">
-        <v>105</v>
       </c>
       <c r="C12" s="1">
         <v>4106902</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1">
         <v>3509502</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1">
         <v>3526902</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" t="s">
         <v>129</v>
-      </c>
-      <c r="B15" t="s">
-        <v>130</v>
       </c>
       <c r="C15" s="1">
         <v>3106200</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="1">
         <v>3303302</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1">
         <v>4209102</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1">
         <v>4202404</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="K18" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1">
         <v>3529401</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="K19" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" t="s">
         <v>164</v>
-      </c>
-      <c r="B20" t="s">
-        <v>165</v>
       </c>
       <c r="C20" s="1">
         <v>1400100</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="1">
         <v>4304606</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="K21" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="1">
         <v>3543402</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="K22" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1">
         <v>3552205</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="1">
         <v>3547809</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="I24" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="1">
         <v>3548500</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="J25" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1">
         <v>3513801</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="I26" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="1">
         <v>3530607</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="K27" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="1">
         <v>3516200</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G28" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="K28" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" s="1">
         <v>3538709</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30" s="1">
         <v>4305108</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="J30" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C31" s="1">
         <v>3170206</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" s="1">
         <v>3518800</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="F32" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" s="1">
         <v>3552502</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>228</v>
-      </c>
       <c r="J33" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C34" s="1">
         <v>4115200</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G34" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="K34" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="1">
         <v>3205200</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F35" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="H35" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K35" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" s="1">
         <v>3506003</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="K36" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C37" s="1">
         <v>2409332</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E37" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="H37" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K37" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>247</v>
+      </c>
+      <c r="B38" t="s">
         <v>248</v>
-      </c>
-      <c r="B38" t="s">
-        <v>249</v>
       </c>
       <c r="C38" s="1">
         <v>2611606</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E38" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="I38" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J38" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="I38" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="J38" s="3" t="s">
+      <c r="K38" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C39" s="1">
         <v>3301702</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G39" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C40" s="1">
         <v>3552809</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>265</v>
-      </c>
       <c r="F40" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C41" s="1">
         <v>4104808</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C42" s="1">
         <v>4125506</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E42" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G42" s="3" t="s">
+      <c r="H42" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="I42" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="I42" s="3" t="s">
+      <c r="J42" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>272</v>
-      </c>
       <c r="K42" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C43" s="1">
         <v>3554102</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C44" s="1">
         <v>3205002</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C45" s="1">
         <v>3549805</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C46" s="1">
         <v>4113700</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F46" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="H46" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="J46" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>281</v>
-      </c>
       <c r="K46" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47" s="1">
         <v>3552403</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E47" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H47" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>286</v>
-      </c>
       <c r="K47" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48" s="1">
         <v>4213807</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="F48" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="G48" s="3" t="s">
+      <c r="H48" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I48" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>291</v>
-      </c>
       <c r="J48" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="1">
         <v>3106705</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F49" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="H49" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="J49" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="J49" s="3" t="s">
+      <c r="K49" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C50" s="1">
         <v>3170107</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C51" s="1">
         <v>3118601</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="H51" s="3" t="s">
+      <c r="I51" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C52" s="1">
         <v>4309209</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E52" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H52" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H52" s="3" t="s">
+      <c r="I52" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="J52" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>305</v>
-      </c>
       <c r="K52" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>305</v>
+      </c>
+      <c r="B53" t="s">
         <v>306</v>
-      </c>
-      <c r="B53" t="s">
-        <v>307</v>
       </c>
       <c r="C53" s="1">
         <v>5208707</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F53" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="G53" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="H53" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J53" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="H53" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>310</v>
-      </c>
       <c r="K53" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>310</v>
+      </c>
+      <c r="B54" t="s">
         <v>311</v>
-      </c>
-      <c r="B54" t="s">
-        <v>312</v>
       </c>
       <c r="C54" s="1">
         <v>4117602</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J54" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="K54" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C55" s="1">
         <v>3303500</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E55" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="I55" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>317</v>
-      </c>
       <c r="J55" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>317</v>
+      </c>
+      <c r="B56" t="s">
         <v>318</v>
-      </c>
-      <c r="B56" t="s">
-        <v>319</v>
       </c>
       <c r="C56" s="1">
         <v>5002704</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C57" s="1">
         <v>3523107</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C58" s="1">
         <v>3201308</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="I58" s="3" t="s">
+      <c r="J58" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C59" s="1">
         <v>3304904</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F59" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J59" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>328</v>
-      </c>
       <c r="K59" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C60" s="1">
         <v>3303906</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C61" s="1">
         <v>3551009</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>331</v>
+      </c>
+      <c r="B62" t="s">
         <v>332</v>
-      </c>
-      <c r="B62" t="s">
-        <v>333</v>
       </c>
       <c r="C62" s="1">
         <v>5103403</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E62" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="H62" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C63" s="1">
         <v>4119905</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G63" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="J63" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="H63" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>337</v>
-      </c>
       <c r="K63" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>337</v>
+      </c>
+      <c r="B64" t="s">
         <v>338</v>
-      </c>
-      <c r="B64" t="s">
-        <v>339</v>
       </c>
       <c r="C64" s="1">
         <v>2304400</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C65" s="1">
         <v>3510609</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G65" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="I65" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="H65" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="I65" s="3" t="s">
+      <c r="J65" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="J65" s="3" t="s">
-        <v>343</v>
-      </c>
       <c r="K65" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C66" s="1">
         <v>3301009</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E66" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>346</v>
-      </c>
       <c r="H66" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>346</v>
+      </c>
+      <c r="B67" t="s">
         <v>347</v>
-      </c>
-      <c r="B67" t="s">
-        <v>348</v>
       </c>
       <c r="C67" s="1">
         <v>2800308</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B68" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C68" s="1">
         <v>3143302</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F68" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="G68" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="H68" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="J68" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="H68" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>353</v>
-      </c>
       <c r="K68" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B69" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C69" s="1">
         <v>3300456</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H69" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="J69" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="I69" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>356</v>
-      </c>
       <c r="K69" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>356</v>
+      </c>
+      <c r="B70" t="s">
         <v>357</v>
-      </c>
-      <c r="B70" t="s">
-        <v>358</v>
       </c>
       <c r="C70" s="1">
         <v>1600303</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E70" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G70" s="3" t="s">
+      <c r="H70" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="I70" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="H70" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="I70" s="3" t="s">
+      <c r="J70" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="K70" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>362</v>
+      </c>
+      <c r="B71" t="s">
         <v>363</v>
-      </c>
-      <c r="B71" t="s">
-        <v>364</v>
       </c>
       <c r="C71" s="1">
         <v>2905701</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G71" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="J71" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="H71" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>366</v>
-      </c>
       <c r="K71" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>366</v>
+      </c>
+      <c r="B72" t="s">
         <v>367</v>
-      </c>
-      <c r="B72" t="s">
-        <v>368</v>
       </c>
       <c r="C72" s="1">
         <v>2111300</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>371</v>
-      </c>
       <c r="G72" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>371</v>
+      </c>
+      <c r="B73" t="s">
         <v>372</v>
-      </c>
-      <c r="B73" t="s">
-        <v>373</v>
       </c>
       <c r="C73" s="1">
         <v>2504009</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E73" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G73" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G73" s="3" t="s">
+      <c r="H73" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="I73" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="H73" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>376</v>
-      </c>
       <c r="J73" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C74" s="1">
         <v>4314407</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E74" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" s="3" t="s">
+      <c r="H74" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J74" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="H74" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>380</v>
-      </c>
       <c r="K74" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>380</v>
+      </c>
+      <c r="B75" t="s">
         <v>381</v>
-      </c>
-      <c r="B75" t="s">
-        <v>382</v>
       </c>
       <c r="C75" s="1">
         <v>2408102</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B76" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C76" s="1">
         <v>5201108</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B77" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C77" s="1">
         <v>5108402</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E77" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="I77" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="I77" s="3" t="s">
+      <c r="J77" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="J77" s="3" t="s">
-        <v>388</v>
-      </c>
       <c r="K77" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>388</v>
+      </c>
+      <c r="B78" t="s">
         <v>389</v>
-      </c>
-      <c r="B78" t="s">
-        <v>390</v>
       </c>
       <c r="C78" s="1">
         <v>2211001</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B79" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C79" s="1">
         <v>3136702</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E79" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G79" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="F79" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="G79" s="3" t="s">
+      <c r="H79" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I79" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="H79" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="I79" s="3" t="s">
+      <c r="J79" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="J79" s="3" t="s">
+      <c r="K79" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C80" s="1">
         <v>3518701</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I80" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="J80" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="J80" s="3" t="s">
-        <v>399</v>
-      </c>
       <c r="K80" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>399</v>
+      </c>
+      <c r="B81" t="s">
         <v>400</v>
-      </c>
-      <c r="B81" t="s">
-        <v>401</v>
       </c>
       <c r="C81" s="1">
         <v>1302603</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B82" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C82" s="1">
         <v>2927408</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="K82" s="3" t="s">
         <v>404</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>405</v>
+      </c>
+      <c r="B83" t="s">
         <v>406</v>
-      </c>
-      <c r="B83" t="s">
-        <v>407</v>
       </c>
       <c r="C83" s="1">
         <v>1501402</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F83" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I83" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>409</v>
-      </c>
       <c r="J83" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B84" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C84" s="1">
         <v>2507507</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B85" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C85" s="1">
         <v>3305109</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="J85" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>414</v>
-      </c>
       <c r="K85" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>414</v>
+      </c>
+      <c r="B86" t="s">
         <v>415</v>
-      </c>
-      <c r="B86" t="s">
-        <v>416</v>
       </c>
       <c r="C86" s="1">
         <v>1100205</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K86" s="3" t="s">
         <v>417</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B87" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C87" s="1">
         <v>5201405</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B88" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C88" s="1">
         <v>2408003</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B89" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C89" s="1">
         <v>1500800</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E89" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="J89" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>425</v>
-      </c>
       <c r="K89" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>425</v>
+      </c>
+      <c r="B90" t="s">
         <v>426</v>
-      </c>
-      <c r="B90" t="s">
-        <v>427</v>
       </c>
       <c r="C90" s="1">
         <v>2704302</v>
       </c>
       <c r="D90" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K90" s="3" t="s">
         <v>428</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K90" s="3" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B91" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C91" s="1">
         <v>1506807</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F91" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="I91" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>432</v>
-      </c>
       <c r="J91" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B92" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C92" s="1">
         <v>3154606</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G92" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="J92" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="H92" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="J92" s="3" t="s">
-        <v>435</v>
-      </c>
       <c r="K92" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B93" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C93" s="1">
         <v>2910800</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I93" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="E93" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>438</v>
-      </c>
       <c r="J93" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>438</v>
+      </c>
+      <c r="B94" t="s">
         <v>439</v>
-      </c>
-      <c r="B94" t="s">
-        <v>440</v>
       </c>
       <c r="C94" s="1">
         <v>1200401</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B95" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C95" s="1">
         <v>2303709</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E95" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="F95" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="G95" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="J95" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="G95" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="J95" s="3" t="s">
-        <v>446</v>
-      </c>
       <c r="K95" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B96" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C96" s="1">
         <v>2611101</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G96" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="E96" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="G96" s="3" t="s">
+      <c r="H96" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K96" s="3" t="s">
         <v>449</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="K96" s="3" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B97" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C97" s="1">
         <v>2609600</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B98" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C98" s="1">
         <v>2933307</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E98" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="F98" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G98" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="F98" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>456</v>
-      </c>
       <c r="H98" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B99" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C99" s="1">
         <v>2610707</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E99" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="E99" s="3" t="s">
-        <v>459</v>
-      </c>
       <c r="F99" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B100" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C100" s="1">
         <v>2607901</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G100" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="J100" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>462</v>
-      </c>
       <c r="K100" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B101" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C101" s="1">
         <v>2604106</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E101" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G101" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="G101" s="3" t="s">
+      <c r="H101" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="I101" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>466</v>
-      </c>
       <c r="J101" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
